--- a/file/datagv.xlsx
+++ b/file/datagv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK1-Nam4\Cong nghe moi\Do an\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioCode\data_baitaplon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3FB6B2-268A-4582-8B14-11C1529DA9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F9036B-92D9-41D0-9281-2A0A4A7D0A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,18 +78,6 @@
     <t>Số điện thoại</t>
   </si>
   <si>
-    <t>0022</t>
-  </si>
-  <si>
-    <t>0023</t>
-  </si>
-  <si>
-    <t>0024</t>
-  </si>
-  <si>
-    <t>Haha</t>
-  </si>
-  <si>
     <t>Mã khoa</t>
   </si>
   <si>
@@ -97,6 +85,18 @@
   </si>
   <si>
     <t>Mã giảng viên</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
   </si>
 </sst>
 </file>
@@ -424,19 +424,20 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -454,7 +455,7 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -477,12 +478,12 @@
         <v>909526211</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -500,12 +501,12 @@
         <v>909526211</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -523,12 +524,12 @@
         <v>909526211</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -546,7 +547,7 @@
         <v>909526211</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/file/datagv.xlsx
+++ b/file/datagv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioCode\data_baitaplon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK1-Nam4\Cong nghe moi\Do an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F9036B-92D9-41D0-9281-2A0A4A7D0A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF77440-39F5-4378-ADC0-8171EE5931EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,6 +103,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,9 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,13 +428,12 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
@@ -471,7 +474,7 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1">
@@ -494,7 +497,7 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1">
@@ -517,7 +520,7 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1">
@@ -540,7 +543,7 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1">
